--- a/Timekeeping/2024/12-24/GILLES L 12-24.xlsx
+++ b/Timekeeping/2024/12-24/GILLES L 12-24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Timekeeping\12-24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/095d5c38fd0987cc/RWA/1901/Eric's Billing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5053BC93-CA9F-4970-B09D-7815DAA55CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{5053BC93-CA9F-4970-B09D-7815DAA55CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E59235F1-FECC-46EC-8A38-02C4056F55C2}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="38560" windowHeight="21160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,24 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AJ$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="102">
   <si>
     <t>NAME</t>
   </si>
@@ -317,9 +330,6 @@
   </si>
   <si>
     <t>Maplewood Gardens</t>
-  </si>
-  <si>
-    <t>DP</t>
   </si>
   <si>
     <t>December 2024</t>
@@ -1284,22 +1294,22 @@
   <dimension ref="A1:GH87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="34" width="3.28515625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="5.85546875" style="20" customWidth="1"/>
-    <col min="36" max="36" width="40.85546875" style="1" customWidth="1"/>
-    <col min="37" max="190" width="7.5703125" style="21" customWidth="1"/>
-    <col min="191" max="16384" width="7.5703125" style="21"/>
+    <col min="2" max="2" width="17.26953125" customWidth="1"/>
+    <col min="3" max="3" width="6.26953125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="34" width="3.26953125" style="1" customWidth="1"/>
+    <col min="35" max="35" width="5.81640625" style="20" customWidth="1"/>
+    <col min="36" max="36" width="40.81640625" style="1" customWidth="1"/>
+    <col min="37" max="190" width="7.54296875" style="21" customWidth="1"/>
+    <col min="191" max="16384" width="7.54296875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:190" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:190" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33"/>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -1374,7 +1384,7 @@
       <c r="BP1" s="30"/>
       <c r="BQ1" s="30"/>
     </row>
-    <row r="2" spans="1:190" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:190" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -1449,7 +1459,7 @@
       <c r="BP2" s="30"/>
       <c r="BQ2" s="30"/>
     </row>
-    <row r="3" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="3"/>
@@ -1492,7 +1502,7 @@
       <c r="AH3" s="4"/>
       <c r="AI3" s="32"/>
       <c r="AJ3" s="75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK3" s="30"/>
       <c r="AL3" s="30"/>
@@ -1532,7 +1542,7 @@
       <c r="BP3" s="30"/>
       <c r="BQ3" s="30"/>
     </row>
-    <row r="4" spans="1:190" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:190" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33"/>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -1607,7 +1617,7 @@
       <c r="BP4" s="30"/>
       <c r="BQ4" s="30"/>
     </row>
-    <row r="5" spans="1:190" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:190" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
         <v>2</v>
       </c>
@@ -2073,7 +2083,7 @@
       <c r="GG6" s="21"/>
       <c r="GH6" s="21"/>
     </row>
-    <row r="7" spans="1:190" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:190" ht="10.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="39"/>
       <c r="B7" s="40"/>
       <c r="C7" s="41" t="s">
@@ -2212,7 +2222,7 @@
       <c r="BP7" s="30"/>
       <c r="BQ7" s="30"/>
     </row>
-    <row r="8" spans="1:190" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:190" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="52"/>
       <c r="B8" s="44"/>
       <c r="C8" s="45"/>
@@ -2616,7 +2626,7 @@
       <c r="BP11" s="30"/>
       <c r="BQ11" s="30"/>
     </row>
-    <row r="12" spans="1:190" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:190" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
         <v>80</v>
       </c>
@@ -2854,7 +2864,7 @@
       <c r="BP13" s="30"/>
       <c r="BQ13" s="30"/>
     </row>
-    <row r="14" spans="1:190" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:190" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="52"/>
       <c r="B14" s="44"/>
       <c r="C14" s="45"/>
@@ -3046,7 +3056,7 @@
       <c r="BP15" s="30"/>
       <c r="BQ15" s="30"/>
     </row>
-    <row r="16" spans="1:190" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:190" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="52"/>
       <c r="B16" s="44"/>
       <c r="C16" s="45"/>
@@ -3150,7 +3160,7 @@
         <v>97</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="D17" s="59" t="s">
         <v>20</v>
@@ -3383,7 +3393,7 @@
       <c r="GG17" s="21"/>
       <c r="GH17" s="21"/>
     </row>
-    <row r="18" spans="1:190" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:190" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="52"/>
       <c r="B18" s="44"/>
       <c r="C18" s="45"/>
@@ -3479,7 +3489,7 @@
       <c r="BP18" s="30"/>
       <c r="BQ18" s="30"/>
     </row>
-    <row r="19" spans="1:190" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:190" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53"/>
       <c r="B19" s="40"/>
       <c r="C19" s="41"/>
@@ -3909,7 +3919,7 @@
       <c r="GG20" s="21"/>
       <c r="GH20" s="21"/>
     </row>
-    <row r="21" spans="1:190" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:190" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="58" t="s">
         <v>6</v>
@@ -4201,7 +4211,7 @@
       <c r="GG21" s="21"/>
       <c r="GH21" s="21"/>
     </row>
-    <row r="22" spans="1:190" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:190" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>7</v>
       </c>
@@ -4404,7 +4414,7 @@
       <c r="GG22" s="24"/>
       <c r="GH22" s="24"/>
     </row>
-    <row r="23" spans="1:190" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:190" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>14</v>
       </c>
@@ -4448,7 +4458,7 @@
         <v>0.5</v>
       </c>
       <c r="AJ23" s="51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK23" s="30"/>
       <c r="AL23" s="30"/>
@@ -4605,7 +4615,7 @@
       <c r="GG23" s="24"/>
       <c r="GH23" s="24"/>
     </row>
-    <row r="24" spans="1:190" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:190" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>8</v>
       </c>
@@ -4802,7 +4812,7 @@
       <c r="GG24" s="21"/>
       <c r="GH24" s="21"/>
     </row>
-    <row r="25" spans="1:190" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>22</v>
       </c>
@@ -4878,7 +4888,7 @@
       <c r="BP25" s="30"/>
       <c r="BQ25" s="30"/>
     </row>
-    <row r="26" spans="1:190" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>78</v>
       </c>
@@ -4953,7 +4963,7 @@
       <c r="BP26" s="30"/>
       <c r="BQ26" s="30"/>
     </row>
-    <row r="27" spans="1:190" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>12</v>
       </c>
@@ -5029,7 +5039,7 @@
       <c r="BP27" s="30"/>
       <c r="BQ27" s="30"/>
     </row>
-    <row r="28" spans="1:190" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>13</v>
       </c>
@@ -5105,7 +5115,7 @@
       <c r="BP28" s="30"/>
       <c r="BQ28" s="30"/>
     </row>
-    <row r="29" spans="1:190" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>29</v>
       </c>
@@ -5149,7 +5159,7 @@
         <v>1</v>
       </c>
       <c r="AJ29" s="51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK29" s="30"/>
       <c r="AL29" s="30"/>
@@ -5185,7 +5195,7 @@
       <c r="BP29" s="30"/>
       <c r="BQ29" s="30"/>
     </row>
-    <row r="30" spans="1:190" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>29</v>
       </c>
@@ -5239,7 +5249,7 @@
         <v>26.5</v>
       </c>
       <c r="AJ30" s="48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK30" s="30"/>
       <c r="AL30" s="30"/>
@@ -5275,7 +5285,7 @@
       <c r="BP30" s="30"/>
       <c r="BQ30" s="30"/>
     </row>
-    <row r="31" spans="1:190" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>9</v>
       </c>
@@ -5444,7 +5454,7 @@
       <c r="BP31" s="30"/>
       <c r="BQ31" s="30"/>
     </row>
-    <row r="32" spans="1:190" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A32" s="77"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -5515,7 +5525,7 @@
       <c r="BP32" s="30"/>
       <c r="BQ32" s="30"/>
     </row>
-    <row r="33" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>95</v>
       </c>
@@ -5601,7 +5611,7 @@
       <c r="BP33" s="30"/>
       <c r="BQ33" s="30"/>
     </row>
-    <row r="34" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A34" s="77"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -5672,7 +5682,7 @@
       <c r="BP34" s="30"/>
       <c r="BQ34" s="30"/>
     </row>
-    <row r="35" spans="1:69" s="30" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:69" s="30" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>10</v>
       </c>
@@ -5713,7 +5723,7 @@
       <c r="AJ35" s="31"/>
       <c r="AZ35" s="55"/>
     </row>
-    <row r="36" spans="1:69" s="30" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:69" s="30" customFormat="1" ht="10.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>84</v>
       </c>
@@ -5767,7 +5777,7 @@
       <c r="AJ36" s="31"/>
       <c r="AZ36" s="55"/>
     </row>
-    <row r="37" spans="1:69" s="30" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:69" s="30" customFormat="1" ht="10" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
         <v>24</v>
       </c>
@@ -5813,7 +5823,7 @@
       <c r="AJ37" s="31"/>
       <c r="AZ37" s="55"/>
     </row>
-    <row r="38" spans="1:69" s="30" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:69" s="30" customFormat="1" ht="10" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
         <v>88</v>
       </c>
@@ -5866,7 +5876,7 @@
       </c>
       <c r="AZ38" s="55"/>
     </row>
-    <row r="39" spans="1:69" s="30" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:69" s="30" customFormat="1" ht="10" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
         <v>23</v>
       </c>
@@ -5911,7 +5921,7 @@
       <c r="AI39" s="65"/>
       <c r="AJ39" s="31"/>
     </row>
-    <row r="40" spans="1:69" s="30" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:69" s="30" customFormat="1" ht="10" x14ac:dyDescent="0.2">
       <c r="A40" s="31" t="s">
         <v>27</v>
       </c>
@@ -5961,7 +5971,7 @@
       </c>
       <c r="AJ40" s="31"/>
     </row>
-    <row r="41" spans="1:69" s="30" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:69" s="30" customFormat="1" ht="10" x14ac:dyDescent="0.2">
       <c r="A41" s="31"/>
       <c r="B41" s="31"/>
       <c r="C41" s="31"/>
@@ -5998,7 +6008,7 @@
       <c r="AI41" s="67"/>
       <c r="AJ41" s="31"/>
     </row>
-    <row r="42" spans="1:69" s="30" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:69" s="30" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="29"/>
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
@@ -6040,7 +6050,7 @@
       </c>
       <c r="AJ42" s="31"/>
     </row>
-    <row r="43" spans="1:69" s="30" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:69" s="30" customFormat="1" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A43" s="29"/>
       <c r="B43" s="29"/>
       <c r="C43" s="29"/>
@@ -6078,7 +6088,7 @@
       <c r="AI43" s="31"/>
       <c r="AJ43" s="31"/>
     </row>
-    <row r="44" spans="1:69" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:69" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="29"/>
       <c r="B44" s="29"/>
       <c r="C44" s="29"/>
@@ -6116,7 +6126,7 @@
       <c r="AI44" s="31"/>
       <c r="AJ44" s="31"/>
     </row>
-    <row r="45" spans="1:69" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:69" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="29"/>
       <c r="B45" s="29"/>
       <c r="C45" s="29"/>
@@ -6154,7 +6164,7 @@
       <c r="AI45" s="31"/>
       <c r="AJ45" s="31"/>
     </row>
-    <row r="46" spans="1:69" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:69" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
       <c r="B46" s="29"/>
       <c r="C46" s="29"/>
@@ -6192,167 +6202,167 @@
       <c r="AI46" s="31"/>
       <c r="AJ46" s="31"/>
     </row>
-    <row r="47" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:69" x14ac:dyDescent="0.25">
       <c r="C47"/>
       <c r="AI47" s="1"/>
     </row>
-    <row r="48" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:69" x14ac:dyDescent="0.25">
       <c r="C48"/>
       <c r="AI48" s="1"/>
     </row>
-    <row r="49" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C49"/>
       <c r="AI49" s="1"/>
     </row>
-    <row r="50" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C50"/>
       <c r="AI50" s="1"/>
     </row>
-    <row r="51" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C51"/>
       <c r="AI51" s="1"/>
     </row>
-    <row r="52" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C52"/>
       <c r="AI52" s="1"/>
     </row>
-    <row r="53" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C53"/>
       <c r="AI53" s="1"/>
     </row>
-    <row r="54" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C54"/>
       <c r="AI54" s="1"/>
     </row>
-    <row r="55" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C55"/>
       <c r="AI55" s="1"/>
     </row>
-    <row r="56" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C56"/>
       <c r="AI56" s="1"/>
     </row>
-    <row r="57" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C57"/>
       <c r="AI57" s="1"/>
     </row>
-    <row r="58" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C58"/>
       <c r="AI58" s="1"/>
     </row>
-    <row r="59" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C59"/>
       <c r="AI59" s="1"/>
     </row>
-    <row r="60" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C60"/>
       <c r="AI60" s="1"/>
     </row>
-    <row r="61" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C61"/>
       <c r="AI61" s="1"/>
     </row>
-    <row r="62" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C62"/>
       <c r="AI62" s="1"/>
     </row>
-    <row r="63" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C63"/>
       <c r="AI63" s="1"/>
     </row>
-    <row r="64" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C64"/>
       <c r="AI64" s="1"/>
     </row>
-    <row r="65" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C65"/>
       <c r="AI65" s="1"/>
     </row>
-    <row r="66" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C66"/>
       <c r="AI66" s="1"/>
     </row>
-    <row r="67" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C67"/>
       <c r="AI67" s="1"/>
     </row>
-    <row r="68" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C68"/>
       <c r="AI68" s="1"/>
     </row>
-    <row r="69" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C69"/>
       <c r="AI69" s="1"/>
     </row>
-    <row r="70" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C70"/>
       <c r="AI70" s="1"/>
     </row>
-    <row r="71" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C71"/>
       <c r="AI71" s="1"/>
     </row>
-    <row r="72" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C72"/>
       <c r="AI72" s="1"/>
     </row>
-    <row r="73" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C73"/>
       <c r="AI73" s="1"/>
     </row>
-    <row r="74" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C74"/>
       <c r="AI74" s="1"/>
     </row>
-    <row r="75" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C75"/>
       <c r="AI75" s="1"/>
     </row>
-    <row r="76" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C76"/>
       <c r="AI76" s="1"/>
     </row>
-    <row r="77" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C77"/>
       <c r="AI77" s="1"/>
     </row>
-    <row r="78" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C78"/>
       <c r="AI78" s="1"/>
     </row>
-    <row r="79" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C79"/>
       <c r="AI79" s="1"/>
     </row>
-    <row r="80" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C80"/>
       <c r="AI80" s="1"/>
     </row>
-    <row r="81" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C81"/>
       <c r="AI81" s="1"/>
     </row>
-    <row r="82" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C82"/>
       <c r="AI82" s="1"/>
     </row>
-    <row r="83" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C83"/>
       <c r="AI83" s="1"/>
     </row>
-    <row r="84" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C84"/>
       <c r="AI84" s="1"/>
     </row>
-    <row r="85" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C85"/>
       <c r="AI85" s="1"/>
     </row>
-    <row r="86" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C86"/>
       <c r="AI86" s="1"/>
     </row>
-    <row r="87" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C87"/>
       <c r="AI87" s="1"/>
     </row>
